--- a/data/income_statement/1digit/size/D_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/D_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>D-Electricity, gas, steam and air conditioning supply</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>D-Electricity, gas, steam and air conditioning supply</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1148 +841,1298 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>129768.97536</v>
+        <v>243153.52604</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>233990.99156</v>
+        <v>374294.53859</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>604278.2816399999</v>
+        <v>760613.75431</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>601121.0911400001</v>
+        <v>806591.43311</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>861068.3395999999</v>
+        <v>1360601.26627</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1149711.36501</v>
+        <v>1782179.27517</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1304571.45567</v>
+        <v>2001615.91419</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1698513.96921</v>
+        <v>2504804.4833</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2587078.33456</v>
+        <v>3429559.44348</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7041822.76056</v>
+        <v>8466572.382750001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7405934.795980001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9100184.778659999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>12896937</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>123324.27202</v>
+        <v>223094.23443</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>225117.66675</v>
+        <v>354842.89835</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>584939.97172</v>
+        <v>718972.49729</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>573323.48404</v>
+        <v>771152.55774</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>827205.0956999999</v>
+        <v>1309977.92493</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1109605.02534</v>
+        <v>1717831.07471</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1193970.47847</v>
+        <v>1851502.02622</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1573171.91036</v>
+        <v>2353334.48162</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2451268.25435</v>
+        <v>3217168.27119</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6777782.59171</v>
+        <v>8128136.4303</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6903903.08203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8466283.347069999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12375036.551</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2722.80911</v>
+        <v>1227.34381</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>3633.68209</v>
+        <v>5219.12919</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>7658.081480000001</v>
+        <v>15168.92316</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>11004.70972</v>
+        <v>11004.94433</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8744.340259999999</v>
+        <v>12450.67177</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>7192.04154</v>
+        <v>14293.18982</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>29882.18922</v>
+        <v>42091.95545</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>63299.30205</v>
+        <v>69015.83092000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>71794.57533000001</v>
+        <v>83475.27755</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>113450.28227</v>
+        <v>113490.52486</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>335732.098</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>374216.94349</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>283029.63</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>3721.89423</v>
+        <v>18831.9478</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>5239.642720000001</v>
+        <v>14232.51105</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>11680.22844</v>
+        <v>26472.33386</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>16792.89738</v>
+        <v>24433.93104</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>25118.90364</v>
+        <v>38172.66956999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>32914.29813</v>
+        <v>50055.01064</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>80718.78798000001</v>
+        <v>108021.93252</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>62042.7568</v>
+        <v>82454.17076000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>64015.50488</v>
+        <v>128915.89474</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>150589.88658</v>
+        <v>224945.42759</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>166299.61595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>259684.4881</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>238870.819</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>930.10109</v>
+        <v>2314.10531</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>606.23355</v>
+        <v>5451.6529</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>21775.81109</v>
+        <v>24107.35585</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>25908.80761</v>
+        <v>30060.72531</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>29829.05638</v>
+        <v>38329.21487</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>20770.08164</v>
+        <v>32736.81596</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>27414.92564</v>
+        <v>37097.17949</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>23242.6707</v>
+        <v>88980.71332</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>24588.36837</v>
+        <v>43097.11161</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>97655.45809</v>
+        <v>126339.97729</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>91180.83714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>215690.2098</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1594767.968</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>175.7508</v>
+        <v>1297.8244</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>59.58067</v>
+        <v>1244.57764</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>555.2366200000001</v>
+        <v>1776.00014</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>824.67986</v>
+        <v>3774.03376</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1534.58713</v>
+        <v>5544.726680000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3545.93655</v>
+        <v>11707.47084</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>6787.342259999999</v>
+        <v>9637.733470000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>8077.47862</v>
+        <v>48271.18112000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>4656.76085</v>
+        <v>15873.72989</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>50067.33824</v>
+        <v>69005.71636000002</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>41297.56355000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>155912.87008</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1527967.383</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>754.3502900000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>136.23811</v>
+        <v>1423.6946</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1203.77825</v>
+        <v>1340.13285</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>932.03062</v>
+        <v>1406.3173</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>30.6212</v>
+        <v>638.45516</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>262.45585</v>
+        <v>791.5147900000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>676.4230799999999</v>
+        <v>1296.18363</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2196.58256</v>
+        <v>8657.727550000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>360.17354</v>
+        <v>4503.11127</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3704.988810000001</v>
+        <v>6281.443069999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>10671.34941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11097.30716</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>9111.457</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
+        <v>261.93062</v>
+      </c>
+      <c r="D12" s="48" t="n">
+        <v>2783.38066</v>
+      </c>
+      <c r="E12" s="48" t="n">
+        <v>20991.22286</v>
+      </c>
+      <c r="F12" s="48" t="n">
+        <v>24880.37425</v>
+      </c>
+      <c r="G12" s="48" t="n">
+        <v>32146.03303</v>
+      </c>
+      <c r="H12" s="48" t="n">
+        <v>20237.83033</v>
+      </c>
+      <c r="I12" s="48" t="n">
+        <v>26163.26239</v>
+      </c>
+      <c r="J12" s="48" t="n">
+        <v>32051.80465</v>
+      </c>
+      <c r="K12" s="48" t="n">
+        <v>22720.27045</v>
+      </c>
+      <c r="L12" s="48" t="n">
+        <v>51052.81786</v>
+      </c>
+      <c r="M12" s="48" t="n">
+        <v>48680.03256</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>57689.128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n"/>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
+      </c>
+      <c r="C13" s="46" t="n">
+        <v>240839.42073</v>
+      </c>
+      <c r="D13" s="47" t="n">
+        <v>368842.8856900001</v>
+      </c>
+      <c r="E13" s="47" t="n">
+        <v>736506.3984599999</v>
+      </c>
+      <c r="F13" s="47" t="n">
+        <v>776530.7078000001</v>
+      </c>
+      <c r="G13" s="47" t="n">
+        <v>1322272.0514</v>
+      </c>
+      <c r="H13" s="47" t="n">
+        <v>1749442.45921</v>
+      </c>
+      <c r="I13" s="47" t="n">
+        <v>1964518.7347</v>
+      </c>
+      <c r="J13" s="47" t="n">
+        <v>2415823.76998</v>
+      </c>
+      <c r="K13" s="47" t="n">
+        <v>3386462.33187</v>
+      </c>
+      <c r="L13" s="47" t="n">
+        <v>8340232.40546</v>
+      </c>
+      <c r="M13" s="47" t="n">
+        <v>8884494.56886</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11302169.032</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n"/>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
+      </c>
+      <c r="C14" s="46" t="n">
+        <v>235824.56974</v>
+      </c>
+      <c r="D14" s="47" t="n">
+        <v>325594.26284</v>
+      </c>
+      <c r="E14" s="47" t="n">
+        <v>655623.10405</v>
+      </c>
+      <c r="F14" s="47" t="n">
+        <v>713151.7085299999</v>
+      </c>
+      <c r="G14" s="47" t="n">
+        <v>1170025.22869</v>
+      </c>
+      <c r="H14" s="47" t="n">
+        <v>1630358.5024</v>
+      </c>
+      <c r="I14" s="47" t="n">
+        <v>1679185.31247</v>
+      </c>
+      <c r="J14" s="47" t="n">
+        <v>2257947.08848</v>
+      </c>
+      <c r="K14" s="47" t="n">
+        <v>2899308.36977</v>
+      </c>
+      <c r="L14" s="47" t="n">
+        <v>6209736.48888</v>
+      </c>
+      <c r="M14" s="47" t="n">
+        <v>6078469.83801</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>8055879.727</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
+      </c>
+      <c r="C15" s="48" t="n">
+        <v>80159.18820999999</v>
+      </c>
+      <c r="D15" s="48" t="n">
+        <v>84654.71921</v>
+      </c>
+      <c r="E15" s="48" t="n">
+        <v>86167.74204</v>
+      </c>
+      <c r="F15" s="48" t="n">
+        <v>108144.45565</v>
+      </c>
+      <c r="G15" s="48" t="n">
+        <v>304192.21909</v>
+      </c>
+      <c r="H15" s="48" t="n">
+        <v>347060.82956</v>
+      </c>
+      <c r="I15" s="48" t="n">
+        <v>378699.7971799999</v>
+      </c>
+      <c r="J15" s="48" t="n">
+        <v>534037.30632</v>
+      </c>
+      <c r="K15" s="48" t="n">
+        <v>585111.35159</v>
+      </c>
+      <c r="L15" s="48" t="n">
+        <v>1464917.93922</v>
+      </c>
+      <c r="M15" s="48" t="n">
+        <v>1493750.93267</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2224607.388</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
+      </c>
+      <c r="C16" s="48" t="n">
+        <v>49264.98956</v>
+      </c>
+      <c r="D16" s="48" t="n">
+        <v>98369.50208000002</v>
+      </c>
+      <c r="E16" s="48" t="n">
+        <v>351241.84275</v>
+      </c>
+      <c r="F16" s="48" t="n">
+        <v>359511.04849</v>
+      </c>
+      <c r="G16" s="48" t="n">
+        <v>471052.4462</v>
+      </c>
+      <c r="H16" s="48" t="n">
+        <v>743673.19939</v>
+      </c>
+      <c r="I16" s="48" t="n">
+        <v>742293.9065700001</v>
+      </c>
+      <c r="J16" s="48" t="n">
+        <v>927832.8353799999</v>
+      </c>
+      <c r="K16" s="48" t="n">
+        <v>1260135.0084</v>
+      </c>
+      <c r="L16" s="48" t="n">
+        <v>2625920.51488</v>
+      </c>
+      <c r="M16" s="48" t="n">
+        <v>2049049.85233</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1879514.122</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
+      </c>
+      <c r="C17" s="48" t="n">
+        <v>103159.00379</v>
+      </c>
+      <c r="D17" s="48" t="n">
+        <v>140614.19523</v>
+      </c>
+      <c r="E17" s="48" t="n">
+        <v>217241.42866</v>
+      </c>
+      <c r="F17" s="48" t="n">
+        <v>244944.31729</v>
+      </c>
+      <c r="G17" s="48" t="n">
+        <v>393434.65062</v>
+      </c>
+      <c r="H17" s="48" t="n">
+        <v>535532.80453</v>
+      </c>
+      <c r="I17" s="48" t="n">
+        <v>549836.89309</v>
+      </c>
+      <c r="J17" s="48" t="n">
+        <v>776674.7722</v>
+      </c>
+      <c r="K17" s="48" t="n">
+        <v>988887.1845099999</v>
+      </c>
+      <c r="L17" s="48" t="n">
+        <v>2061283.35448</v>
+      </c>
+      <c r="M17" s="48" t="n">
+        <v>2477787.8963</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3898023.759</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
+      </c>
+      <c r="C18" s="48" t="n">
+        <v>3241.38818</v>
+      </c>
+      <c r="D18" s="48" t="n">
+        <v>1955.84632</v>
+      </c>
+      <c r="E18" s="48" t="n">
+        <v>972.0906</v>
+      </c>
+      <c r="F18" s="48" t="n">
+        <v>551.8871000000001</v>
+      </c>
+      <c r="G18" s="48" t="n">
+        <v>1345.91278</v>
+      </c>
+      <c r="H18" s="48" t="n">
+        <v>4091.66892</v>
+      </c>
+      <c r="I18" s="48" t="n">
+        <v>8354.715630000001</v>
+      </c>
+      <c r="J18" s="48" t="n">
+        <v>19402.17458</v>
+      </c>
+      <c r="K18" s="48" t="n">
+        <v>65174.82527</v>
+      </c>
+      <c r="L18" s="48" t="n">
+        <v>57614.68030000001</v>
+      </c>
+      <c r="M18" s="48" t="n">
+        <v>57881.15671</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>53734.458</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n"/>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
+      </c>
+      <c r="C19" s="46" t="n">
+        <v>5014.85099</v>
+      </c>
+      <c r="D19" s="47" t="n">
+        <v>43248.62285</v>
+      </c>
+      <c r="E19" s="47" t="n">
+        <v>80883.29441000002</v>
+      </c>
+      <c r="F19" s="47" t="n">
+        <v>63378.99926999999</v>
+      </c>
+      <c r="G19" s="47" t="n">
+        <v>152246.82271</v>
+      </c>
+      <c r="H19" s="47" t="n">
+        <v>119083.95681</v>
+      </c>
+      <c r="I19" s="47" t="n">
+        <v>285333.42223</v>
+      </c>
+      <c r="J19" s="47" t="n">
+        <v>157876.6815</v>
+      </c>
+      <c r="K19" s="47" t="n">
+        <v>487153.9621</v>
+      </c>
+      <c r="L19" s="47" t="n">
+        <v>2130495.91658</v>
+      </c>
+      <c r="M19" s="47" t="n">
+        <v>2806024.73085</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3246289.305</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="n"/>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
+      </c>
+      <c r="C20" s="46" t="n">
+        <v>89651.07226</v>
+      </c>
+      <c r="D20" s="47" t="n">
+        <v>120465.82449</v>
+      </c>
+      <c r="E20" s="47" t="n">
+        <v>222075.2543</v>
+      </c>
+      <c r="F20" s="47" t="n">
+        <v>160533.39555</v>
+      </c>
+      <c r="G20" s="47" t="n">
+        <v>260539.13584</v>
+      </c>
+      <c r="H20" s="47" t="n">
+        <v>273733.72724</v>
+      </c>
+      <c r="I20" s="47" t="n">
+        <v>385251.5202800001</v>
+      </c>
+      <c r="J20" s="47" t="n">
+        <v>446415.77733</v>
+      </c>
+      <c r="K20" s="47" t="n">
+        <v>606656.6860399999</v>
+      </c>
+      <c r="L20" s="47" t="n">
+        <v>956155.68086</v>
+      </c>
+      <c r="M20" s="47" t="n">
+        <v>967474.01591</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1263170.055</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
+      </c>
+      <c r="C21" s="48" t="n">
+        <v>2680.28374</v>
+      </c>
+      <c r="D21" s="48" t="n">
+        <v>77.78227000000001</v>
+      </c>
+      <c r="E21" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="48" t="n">
-        <v>410.41477</v>
-      </c>
-      <c r="E12" s="48" t="n">
-        <v>20016.79622</v>
-      </c>
-      <c r="F12" s="48" t="n">
-        <v>24152.09713</v>
-      </c>
-      <c r="G12" s="48" t="n">
-        <v>28263.84805</v>
-      </c>
-      <c r="H12" s="48" t="n">
-        <v>16961.68924</v>
-      </c>
-      <c r="I12" s="48" t="n">
-        <v>19951.1603</v>
-      </c>
-      <c r="J12" s="48" t="n">
-        <v>12968.60952</v>
-      </c>
-      <c r="K12" s="48" t="n">
-        <v>19571.43398</v>
-      </c>
-      <c r="L12" s="48" t="n">
-        <v>43883.13104</v>
-      </c>
-      <c r="M12" s="48" t="n">
-        <v>39211.92418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="46" t="n">
-        <v>128838.87427</v>
-      </c>
-      <c r="D13" s="47" t="n">
-        <v>233384.75801</v>
-      </c>
-      <c r="E13" s="47" t="n">
-        <v>582502.47055</v>
-      </c>
-      <c r="F13" s="47" t="n">
-        <v>575212.28353</v>
-      </c>
-      <c r="G13" s="47" t="n">
-        <v>831239.28322</v>
-      </c>
-      <c r="H13" s="47" t="n">
-        <v>1128941.28337</v>
-      </c>
-      <c r="I13" s="47" t="n">
-        <v>1277156.53003</v>
-      </c>
-      <c r="J13" s="47" t="n">
-        <v>1675271.29851</v>
-      </c>
-      <c r="K13" s="47" t="n">
-        <v>2562489.96619</v>
-      </c>
-      <c r="L13" s="47" t="n">
-        <v>6944167.30247</v>
-      </c>
-      <c r="M13" s="47" t="n">
-        <v>7314753.958840001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="46" t="n">
-        <v>107861.44887</v>
-      </c>
-      <c r="D14" s="47" t="n">
-        <v>194283.24462</v>
-      </c>
-      <c r="E14" s="47" t="n">
-        <v>522116.90517</v>
-      </c>
-      <c r="F14" s="47" t="n">
-        <v>506882.98097</v>
-      </c>
-      <c r="G14" s="47" t="n">
-        <v>725517.11154</v>
-      </c>
-      <c r="H14" s="47" t="n">
-        <v>1003367.35903</v>
-      </c>
-      <c r="I14" s="47" t="n">
-        <v>1080027.2425</v>
-      </c>
-      <c r="J14" s="47" t="n">
-        <v>1447222.59578</v>
-      </c>
-      <c r="K14" s="47" t="n">
-        <v>2264373.80909</v>
-      </c>
-      <c r="L14" s="47" t="n">
-        <v>5272392.24834</v>
-      </c>
-      <c r="M14" s="47" t="n">
-        <v>5133566.67021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="48" t="n">
-        <v>42790.86664</v>
-      </c>
-      <c r="D15" s="48" t="n">
-        <v>34707.90151</v>
-      </c>
-      <c r="E15" s="48" t="n">
-        <v>56117.4595</v>
-      </c>
-      <c r="F15" s="48" t="n">
-        <v>34890.06183999999</v>
-      </c>
-      <c r="G15" s="48" t="n">
-        <v>97138.82425000002</v>
-      </c>
-      <c r="H15" s="48" t="n">
-        <v>89280.23619999998</v>
-      </c>
-      <c r="I15" s="48" t="n">
-        <v>72811.94365999999</v>
-      </c>
-      <c r="J15" s="48" t="n">
-        <v>120592.63223</v>
-      </c>
-      <c r="K15" s="48" t="n">
-        <v>330510.91489</v>
-      </c>
-      <c r="L15" s="48" t="n">
-        <v>932032.7932000001</v>
-      </c>
-      <c r="M15" s="48" t="n">
-        <v>988125.2132700001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="48" t="n">
-        <v>27733.11332</v>
-      </c>
-      <c r="D16" s="48" t="n">
-        <v>81859.05799</v>
-      </c>
-      <c r="E16" s="48" t="n">
-        <v>328441.27081</v>
-      </c>
-      <c r="F16" s="48" t="n">
-        <v>343016.3163</v>
-      </c>
-      <c r="G16" s="48" t="n">
-        <v>443409.2142</v>
-      </c>
-      <c r="H16" s="48" t="n">
-        <v>703244.6800699999</v>
-      </c>
-      <c r="I16" s="48" t="n">
-        <v>707131.43265</v>
-      </c>
-      <c r="J16" s="48" t="n">
-        <v>859522.1817500001</v>
-      </c>
-      <c r="K16" s="48" t="n">
-        <v>1205174.09697</v>
-      </c>
-      <c r="L16" s="48" t="n">
-        <v>2395238.951580001</v>
-      </c>
-      <c r="M16" s="48" t="n">
-        <v>1927116.88425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="48" t="n">
-        <v>37241.45428</v>
-      </c>
-      <c r="D17" s="48" t="n">
-        <v>77688.79869</v>
-      </c>
-      <c r="E17" s="48" t="n">
-        <v>136789.72139</v>
-      </c>
-      <c r="F17" s="48" t="n">
-        <v>128910.65768</v>
-      </c>
-      <c r="G17" s="48" t="n">
-        <v>183677.68054</v>
-      </c>
-      <c r="H17" s="48" t="n">
-        <v>210030.17856</v>
-      </c>
-      <c r="I17" s="48" t="n">
-        <v>299225.19086</v>
-      </c>
-      <c r="J17" s="48" t="n">
-        <v>465624.33137</v>
-      </c>
-      <c r="K17" s="48" t="n">
-        <v>711523.7453000001</v>
-      </c>
-      <c r="L17" s="48" t="n">
-        <v>1911853.14576</v>
-      </c>
-      <c r="M17" s="48" t="n">
-        <v>2178635.97716</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="48" t="n">
-        <v>96.01463000000001</v>
-      </c>
-      <c r="D18" s="48" t="n">
-        <v>27.48643</v>
-      </c>
-      <c r="E18" s="48" t="n">
-        <v>768.4534699999999</v>
-      </c>
-      <c r="F18" s="48" t="n">
-        <v>65.94515</v>
-      </c>
-      <c r="G18" s="48" t="n">
-        <v>1291.39255</v>
-      </c>
-      <c r="H18" s="48" t="n">
-        <v>812.2642</v>
-      </c>
-      <c r="I18" s="48" t="n">
-        <v>858.67533</v>
-      </c>
-      <c r="J18" s="48" t="n">
-        <v>1483.45043</v>
-      </c>
-      <c r="K18" s="48" t="n">
-        <v>17165.05193</v>
-      </c>
-      <c r="L18" s="48" t="n">
-        <v>33267.3578</v>
-      </c>
-      <c r="M18" s="48" t="n">
-        <v>39688.59552999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="46" t="n">
-        <v>20977.4254</v>
-      </c>
-      <c r="D19" s="47" t="n">
-        <v>39101.51339</v>
-      </c>
-      <c r="E19" s="47" t="n">
-        <v>60385.56537999999</v>
-      </c>
-      <c r="F19" s="47" t="n">
-        <v>68329.30256</v>
-      </c>
-      <c r="G19" s="47" t="n">
-        <v>105722.17168</v>
-      </c>
-      <c r="H19" s="47" t="n">
-        <v>125573.92434</v>
-      </c>
-      <c r="I19" s="47" t="n">
-        <v>197129.28753</v>
-      </c>
-      <c r="J19" s="47" t="n">
-        <v>228048.70273</v>
-      </c>
-      <c r="K19" s="47" t="n">
-        <v>298116.1571</v>
-      </c>
-      <c r="L19" s="47" t="n">
-        <v>1671775.05413</v>
-      </c>
-      <c r="M19" s="47" t="n">
-        <v>2181187.28863</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="46" t="n">
-        <v>37809.21234000001</v>
-      </c>
-      <c r="D20" s="47" t="n">
-        <v>48442.73970000001</v>
-      </c>
-      <c r="E20" s="47" t="n">
-        <v>78490.93056000001</v>
-      </c>
-      <c r="F20" s="47" t="n">
-        <v>96416.57095000001</v>
-      </c>
-      <c r="G20" s="47" t="n">
-        <v>143806.66454</v>
-      </c>
-      <c r="H20" s="47" t="n">
-        <v>155328.08478</v>
-      </c>
-      <c r="I20" s="47" t="n">
-        <v>263800.39336</v>
-      </c>
-      <c r="J20" s="47" t="n">
-        <v>307402.81619</v>
-      </c>
-      <c r="K20" s="47" t="n">
-        <v>450070.54976</v>
-      </c>
-      <c r="L20" s="47" t="n">
-        <v>911209.9500899999</v>
-      </c>
-      <c r="M20" s="47" t="n">
-        <v>947071.0800899999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="48" t="n">
-        <v>151.46628</v>
-      </c>
-      <c r="D21" s="48" t="n">
-        <v>78.77120000000001</v>
-      </c>
-      <c r="E21" s="48" t="n">
-        <v>59.80162</v>
-      </c>
       <c r="F21" s="48" t="n">
-        <v>3822.72016</v>
+        <v>2178.81836</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>669.5485800000001</v>
+        <v>2.00492</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>956.34568</v>
+        <v>996.56475</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>8379.432650000001</v>
+        <v>7119.34213</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>15425.94944</v>
+        <v>1414.92076</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>9299.048699999999</v>
+        <v>2051.60111</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3315.61899</v>
+        <v>1617.80586</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2545.03259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1351.1122</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>951.125</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>987.8292700000001</v>
+        <v>1683.33076</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>3808.57673</v>
+        <v>6338.44328</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>16581.848</v>
+        <v>23243.71048</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>18714.07705</v>
+        <v>20073.78535</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>25939.37635</v>
+        <v>34038.50001999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>29636.83499</v>
+        <v>43952.35626</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>85607.58888000001</v>
+        <v>94858.95678000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>50782.58145999999</v>
+        <v>55431.15518</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>57337.54290000001</v>
+        <v>66008.35805000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>139103.04601</v>
+        <v>148307.56076</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>114064.19343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>104979.84643</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>124446.715</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>36669.91679</v>
+        <v>85287.45775999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>44555.39177</v>
+        <v>114049.59894</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>61849.28094</v>
+        <v>198831.54382</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>73879.77374</v>
+        <v>138280.79184</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>117197.73961</v>
+        <v>226498.6309</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>124734.90411</v>
+        <v>228784.80623</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>169813.37183</v>
+        <v>283273.2213699999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>241194.28529</v>
+        <v>389569.7013900001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>383433.95816</v>
+        <v>538596.72688</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>768791.28509</v>
+        <v>806230.3142399999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>830461.8540699999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>861143.0572799999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1137772.215</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-16831.78694</v>
+        <v>-84636.22126999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-9341.226309999998</v>
+        <v>-77217.20164</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-18105.36518</v>
+        <v>-141191.95989</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-28087.26839</v>
+        <v>-97154.39628</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-38084.49286</v>
+        <v>-108292.31313</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-29754.16044</v>
+        <v>-154649.77043</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-66671.10583</v>
+        <v>-99918.09805</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-79354.11346000001</v>
+        <v>-288539.0958300001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-151954.39266</v>
+        <v>-119502.72394</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>760565.10404</v>
+        <v>1174340.23572</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1234116.20854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1838550.71494</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1983119.25</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>22957.28653</v>
+        <v>164733.15736</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>15481.3699</v>
+        <v>140120.05561</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>30719.72205</v>
+        <v>423349.41507</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>32033.06015</v>
+        <v>392102.39192</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>59232.90983</v>
+        <v>492182.49075</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>88593.26211999998</v>
+        <v>932209.4662500001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>130389.49693</v>
+        <v>1112138.71829</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>155488.42305</v>
+        <v>1227895.4147</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>205244.25681</v>
+        <v>1725587.35879</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1820322.86334</v>
+        <v>7308503.09418</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>792778.5385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2488248.55028</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4272792.346</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>788.93174</v>
+        <v>772.7711999999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>285.14172</v>
+        <v>19.5221</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>201.02336</v>
+        <v>61582.87891</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>444.58117</v>
+        <v>67509.92907</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1337.85709</v>
+        <v>114696.17569</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1125.19296</v>
+        <v>112860.55304</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2564.9429</v>
+        <v>131181.6007</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4655.99236</v>
+        <v>138910.6508</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2051.8906</v>
+        <v>145963.4</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>12804.82057</v>
+        <v>68114.57000000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>10179.98829</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>32229.61408</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>100892.745</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>79.99517</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>18.42388</v>
+        <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>56.99981</v>
+        <v>28.95558</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>23.63005</v>
+        <v>43119.97834</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>206.09829</v>
+        <v>95332.90986</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>52.78423</v>
+        <v>87453.83790000001</v>
       </c>
       <c r="J27" s="48" t="n">
+        <v>227791.28538</v>
+      </c>
+      <c r="K27" s="48" t="n">
+        <v>60948.41147</v>
+      </c>
+      <c r="L27" s="48" t="n">
+        <v>323706.24675</v>
+      </c>
+      <c r="M27" s="48" t="n">
+        <v>32580.14694</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>69896.78</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="n"/>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
+      </c>
+      <c r="C28" s="48" t="n">
+        <v>20553.845</v>
+      </c>
+      <c r="D28" s="48" t="n">
+        <v>12855.53378</v>
+      </c>
+      <c r="E28" s="48" t="n">
+        <v>37147.99449</v>
+      </c>
+      <c r="F28" s="48" t="n">
+        <v>74271.67242999999</v>
+      </c>
+      <c r="G28" s="48" t="n">
+        <v>41438.67292</v>
+      </c>
+      <c r="H28" s="48" t="n">
+        <v>69965.70842</v>
+      </c>
+      <c r="I28" s="48" t="n">
+        <v>113697.2947</v>
+      </c>
+      <c r="J28" s="48" t="n">
+        <v>93958.64494000001</v>
+      </c>
+      <c r="K28" s="48" t="n">
+        <v>276018.02349</v>
+      </c>
+      <c r="L28" s="48" t="n">
+        <v>526958.96909</v>
+      </c>
+      <c r="M28" s="48" t="n">
+        <v>286563.58674</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>362952.055</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="n"/>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
+      </c>
+      <c r="C29" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="K27" s="48" t="n">
-        <v>0.01023</v>
-      </c>
-      <c r="L27" s="48" t="n">
-        <v>1053.45107</v>
-      </c>
-      <c r="M27" s="48" t="n">
-        <v>670.8748900000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="48" t="n">
-        <v>7297.09169</v>
-      </c>
-      <c r="D28" s="48" t="n">
-        <v>5430.57926</v>
-      </c>
-      <c r="E28" s="48" t="n">
-        <v>5732.82759</v>
-      </c>
-      <c r="F28" s="48" t="n">
-        <v>6546.983880000001</v>
-      </c>
-      <c r="G28" s="48" t="n">
-        <v>13491.41786</v>
-      </c>
-      <c r="H28" s="48" t="n">
-        <v>19000.86575</v>
-      </c>
-      <c r="I28" s="48" t="n">
-        <v>34935.03779</v>
-      </c>
-      <c r="J28" s="48" t="n">
-        <v>47394.32986999999</v>
-      </c>
-      <c r="K28" s="48" t="n">
-        <v>53187.98246</v>
-      </c>
-      <c r="L28" s="48" t="n">
-        <v>90036.85119</v>
-      </c>
-      <c r="M28" s="48" t="n">
-        <v>105638.61715</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="48" t="n">
-        <v>11.38873</v>
-      </c>
       <c r="D29" s="48" t="n">
-        <v>19.06148</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>0.46152</v>
+        <v>23.20162</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>34.83653</v>
+        <v>844.8318300000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>0.95456</v>
+        <v>0.73456</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>141.9279</v>
+        <v>1.72798</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>151.05677</v>
+        <v>583.29175</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>130.38438</v>
+        <v>682.8337100000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1436.2476</v>
+        <v>3014.89316</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3691.80329</v>
+        <v>2692.89956</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1251.35265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2115.48226</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>5549.629</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>13.77798</v>
+        <v>27.94065</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>115.12147</v>
+        <v>127.66929</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>182.80897</v>
+        <v>190.59822</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>69.07258</v>
+        <v>531.5360900000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>471.63293</v>
+        <v>775.63089</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>734.2299</v>
+        <v>1010.54559</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3436.30619</v>
+        <v>1613.91573</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3190.50897</v>
+        <v>2566.91817</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3516.08866</v>
+        <v>1318.72313</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2120.08727</v>
+        <v>3457.15147</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1080.82485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2002.10233</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2021.615</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>21.16676</v>
+        <v>695.29647</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>153.76106</v>
+        <v>728.12797</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>5034.90976</v>
+        <v>157.66585</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>184.02741</v>
+        <v>197.08734</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>551.90593</v>
+        <v>1155.28408</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2207.23834</v>
+        <v>1100.53219</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>162.82731</v>
+        <v>487.80734</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4429.5605</v>
+        <v>1018.09071</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5191.932589999999</v>
+        <v>2738.23019</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>12284.46106</v>
+        <v>18395.53835</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>11131.17502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>108709.41905</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>83465.535</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>13239.92975</v>
+        <v>139108.20932</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>8666.26159</v>
+        <v>119416.28217</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>7237.74567</v>
+        <v>313634.81241</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>11127.57528</v>
+        <v>237209.34407</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>27873.23581</v>
+        <v>281298.10116</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>27610.89787</v>
+        <v>608970.6366800001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>69064.2197</v>
+        <v>617130.9826900001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>75800.15634</v>
+        <v>734793.8727599999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>132352.21066</v>
+        <v>1211046.9052</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1620105.34941</v>
+        <v>6241249.60168</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>621264.99836</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1884161.86795</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3487923.459</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>10.13454</v>
+        <v>23.02157</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>42.69237</v>
+        <v>0.03672</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>62.36801999999999</v>
+        <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>28.158</v>
+        <v>0.51459</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>30.74583</v>
+        <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0.08502</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>102.13171</v>
+        <v>119.37794</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>99.19875</v>
+        <v>454.53286</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>11526.2708</v>
+        <v>6600.44167</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>18.21373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>3.14054</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>116.729</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>99.8942</v>
+        <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2099,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>59.93516</v>
+        <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>3.6418</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>0.00714</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1474.97114</v>
+        <v>3472.07798</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>811.4433200000001</v>
+        <v>6972.920300000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>12268.82893</v>
+        <v>10612.22685</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>13506.61547</v>
+        <v>11509.03551</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>15454.1176</v>
+        <v>9697.398519999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>37536.06528</v>
+        <v>42966.85249</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>19962.30186</v>
+        <v>159989.90246</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>19785.35892</v>
+        <v>28053.74029</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>7405.053460000001</v>
+        <v>24084.23929</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>66699.76867999999</v>
+        <v>117327.67561</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>41542.48642</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>139883.18325</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>159973.783</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>11960.34902</v>
+        <v>141445.72895</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>10431.69995</v>
+        <v>117620.69574</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>9631.68217</v>
+        <v>362181.9985700001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>9400.5497</v>
+        <v>298197.79691</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>44581.04063</v>
+        <v>771115.33447</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>54772.87626</v>
+        <v>919052.5326</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>93267.13462000001</v>
+        <v>1159049.17827</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>178197.30124</v>
+        <v>1267157.99445</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>281869.06421</v>
+        <v>1482429.47775</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3155382.13377</v>
+        <v>8572119.84086</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1491341.20822</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2786295.16608</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>5403917.414</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>7.79251</v>
+        <v>1642.00918</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>12.96881</v>
+        <v>750.42473</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>48.43834</v>
+        <v>9877.519</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>79.86179</v>
+        <v>1008.65513</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>90.97295</v>
+        <v>8912.599990000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>228.71062</v>
+        <v>234.53793</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3415.9491</v>
+        <v>633.9430600000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>599.14275</v>
+        <v>220.45591</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2089.40747</v>
+        <v>226.09945</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5689.360299999999</v>
+        <v>2253.60999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2611.01451</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2020.94311</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>980.795</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>203.60188</v>
+        <v>156.35085</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>204.26526</v>
+        <v>203.89493</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>463.61132</v>
+        <v>760.0105900000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>602.06768</v>
+        <v>2296.98819</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1435.76236</v>
+        <v>2782.28257</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>718.21066</v>
+        <v>2056.87693</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1415.87361</v>
+        <v>1690.93246</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3035.35608</v>
+        <v>5061.960700000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7390.12097</v>
+        <v>2323.53473</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>16663.37051</v>
+        <v>12175.6814</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>39202.1162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>35286.67232</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2592.052</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>5.40588</v>
+        <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>18.15163</v>
+        <v>7.45503</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>10.27872</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>34.17124</v>
+        <v>37.61078</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>371.66672</v>
+        <v>288.85392</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>67.22959</v>
+        <v>2e-05</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>144.37402</v>
+        <v>19.09445</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1127.90857</v>
+        <v>1182.38025</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>980.48815</v>
+        <v>13722.88755</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>5840.009940000001</v>
+        <v>37541.89422</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>13548.76569</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2844.47118</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>7091.83</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>11043.06678</v>
+        <v>135234.58584</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>9279.79291</v>
+        <v>113841.06735</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>8498.33252</v>
+        <v>345900.8217</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>8088.1385</v>
+        <v>289394.6191300001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>40009.44916</v>
+        <v>729255.31022</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>26595.96627</v>
+        <v>886956.0041099999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>71933.78933</v>
+        <v>1120544.15526</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>148900.92865</v>
+        <v>1217167.06866</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>213380.58523</v>
+        <v>1443880.34002</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3061233.122769999</v>
+        <v>8447896.868489999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1412944.58745</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2716456.33775</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5294251.222</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0</v>
+        <v>7.76458</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0.03672</v>
@@ -2363,37 +2449,42 @@
         <v>19.76108</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>113.7627</v>
+        <v>0.51459</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>650.69078</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>17.68484</v>
+        <v>324.98589</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>351.78064</v>
+        <v>513.75845</v>
       </c>
       <c r="J41" s="48" t="n">
+        <v>29.92409</v>
+      </c>
+      <c r="K41" s="48" t="n">
+        <v>11.6569</v>
+      </c>
+      <c r="L41" s="48" t="n">
+        <v>22000.35873</v>
+      </c>
+      <c r="M41" s="48" t="n">
+        <v>965.52122</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>816.258</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
+      </c>
+      <c r="C42" s="48" t="n">
         <v>0</v>
-      </c>
-      <c r="K41" s="48" t="n">
-        <v>135.08642</v>
-      </c>
-      <c r="L41" s="48" t="n">
-        <v>35528.60961</v>
-      </c>
-      <c r="M41" s="48" t="n">
-        <v>158.38302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="48" t="n">
-        <v>216.84628</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
@@ -2402,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>9.02153</v>
+        <v>25.89252</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2411,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>483.63569</v>
+        <v>4405.0185</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>916.4846199999999</v>
+        <v>2817.81698</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>591.2601900000001</v>
+        <v>5613.60748</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>473.52626</v>
+        <v>5433.516570000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2022.49866</v>
+        <v>29225.59699</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>27145.07428</v>
+        <v>29480.12772</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>16005.36789</v>
+        <v>35647.29459</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>24533.96519</v>
+        <v>43496.20484</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>57893.37597</v>
+        <v>22264.9591</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>30427.66064</v>
+        <v>50251.42803</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>22876.34135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>28721.2205</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>98185.158</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>6793.24641</v>
+        <v>52432.17828</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6893.57033</v>
+        <v>47387.11451000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>5943.26725</v>
+        <v>199707.32937</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>12272.21607</v>
+        <v>76533.70155999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>28061.34187</v>
+        <v>417739.8108</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>25897.82906</v>
+        <v>548796.46714</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>43684.88150000001</v>
+        <v>676864.31138</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>82091.48891</v>
+        <v>769485.85359</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>136911.60144</v>
+        <v>849326.1336299999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1256722.09278</v>
+        <v>3164868.88801</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1073144.67227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2288041.63735</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3174454.057</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>6792.601439999999</v>
+        <v>49889.60777</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6612.49933</v>
+        <v>30329.84804</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>5710.51767</v>
+        <v>164334.79281</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>12234.36585</v>
+        <v>50592.70295000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>24274.5773</v>
+        <v>353928.09746</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>24463.31851</v>
+        <v>258282.04345</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>34914.51064</v>
+        <v>391039.87103</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>66992.15869000001</v>
+        <v>395238.98247</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>87966.68307999999</v>
+        <v>578084.1241899999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>838519.2389700001</v>
+        <v>1810668.65298</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>858396.2199800002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1526465.64062</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2035216.383</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>0.64497</v>
+        <v>2542.57051</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>281.071</v>
+        <v>17057.26647</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>232.74958</v>
+        <v>35372.53656</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>37.85021999999999</v>
+        <v>25940.99861</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3786.76457</v>
+        <v>63811.71333999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1434.51055</v>
+        <v>290514.42369</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>8770.370859999999</v>
+        <v>285824.44035</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>15099.33022</v>
+        <v>374246.87112</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>48944.91836</v>
+        <v>271242.00944</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>418202.8538099999</v>
+        <v>1354200.23503</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>214748.45229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>761575.99673</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1139237.674</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-12628.09584</v>
+        <v>-113780.97114</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-11185.12669</v>
+        <v>-102104.95628</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-2960.59255</v>
+        <v>-279731.87276</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-17726.97401</v>
+        <v>-79783.50283</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-51493.96552999999</v>
+        <v>-804964.96765</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-21831.60364</v>
+        <v>-690289.30392</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-73233.62501999999</v>
+        <v>-823692.8694099999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-184154.48056</v>
+        <v>-1097287.52917</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-365490.8015</v>
+        <v>-725670.97653</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1831216.25917</v>
+        <v>-3254145.39897</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-537591.1334500001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-747537.53821</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-2322459.875</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1713.56211</v>
+        <v>7902.30312</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>6248.2326</v>
+        <v>57496.82946</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1697.6434</v>
+        <v>51486.04963</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>10325.27555</v>
+        <v>25802.70661</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>9054.603780000001</v>
+        <v>64580.45086</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>11593.16949</v>
+        <v>64489.78805999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>22692.86405</v>
+        <v>45074.23858</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>16189.64564</v>
+        <v>549561.47381</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>31949.43267</v>
+        <v>48484.91458</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>174150.96859</v>
+        <v>277743.27944</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>215609.56147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>192484.73728</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>445401.122</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>185.05873</v>
+        <v>1457.36712</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>160.18887</v>
+        <v>684.61736</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>50.41858999999999</v>
+        <v>858.9764</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>30.55199</v>
+        <v>484.63625</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>160.59777</v>
+        <v>170.27218</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4875.009160000001</v>
+        <v>462.50938</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1989.6292</v>
+        <v>2618.73245</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2522.5116</v>
+        <v>227.84154</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1252.67291</v>
+        <v>1108.89812</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1356.94324</v>
+        <v>3886.62913</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3204.04717</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>9196.869369999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2481.256</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1528.50338</v>
+        <v>6444.936</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6088.04373</v>
+        <v>56812.2121</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1647.22481</v>
+        <v>50627.07323</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>10294.72356</v>
+        <v>25318.07036</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8894.006009999999</v>
+        <v>64410.17868</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>6718.16033</v>
+        <v>64027.27868</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>20703.23485</v>
+        <v>42455.50613</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>13667.13404</v>
+        <v>549333.6322699999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>30696.75976</v>
+        <v>47376.01646</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>172794.02535</v>
+        <v>273856.65031</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>212405.5143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>183287.86791</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>442919.866</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3894.24835</v>
+        <v>24907.41668</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3607.86711</v>
+        <v>41985.52883</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>12454.58287</v>
+        <v>33070.17526</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>7463.17315</v>
+        <v>36539.86416</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>9615.91534</v>
+        <v>88706.68837</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>35268.51269999999</v>
+        <v>97482.64722999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>12587.73411</v>
+        <v>166827.57773</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>40949.94049999999</v>
+        <v>586625.36754</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>57912.55847</v>
+        <v>979134.9011700001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>274339.39394</v>
+        <v>435791.41286</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>175226.10849</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>210914.05656</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1119821.753</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>514.69741</v>
+        <v>17269.43666</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>710.3708399999999</v>
+        <v>23337.279</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>164.31928</v>
+        <v>2404.03162</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>214.21196</v>
+        <v>14991.99834</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1254.37679</v>
+        <v>27012.55603</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3417.2803</v>
+        <v>55084.33493</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1217.87528</v>
+        <v>64966.38631</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>4123.49444</v>
+        <v>57226.00119</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>29841.45881</v>
+        <v>31821.29775</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>10808.09872</v>
+        <v>64974.75129</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>17961.87819</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>25795.07933</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>88278.192</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>550.06028</v>
+        <v>178.90812</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1888.3756</v>
+        <v>312.40719</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1475.39435</v>
+        <v>1430.14112</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>179.67514</v>
+        <v>802.1796900000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1227.66513</v>
+        <v>1487.60288</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1963.67484</v>
+        <v>2121.16114</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>962.0985999999998</v>
+        <v>2144.21216</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>837.1890699999999</v>
+        <v>1433.97064</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1117.92184</v>
+        <v>2914.10657</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>16953.89772</v>
+        <v>10945.02988</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>10818.61835</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>15213.16209</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>5272.123</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2829.490659999999</v>
+        <v>7459.071900000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1009.12067</v>
+        <v>18335.84264</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>10814.86924</v>
+        <v>29236.00252</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>7069.28605</v>
+        <v>20745.68613</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7133.87342</v>
+        <v>60206.52946</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>29887.55756</v>
+        <v>40277.15115999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>10407.76023</v>
+        <v>99716.97926000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>35989.25699</v>
+        <v>527965.39571</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>26953.17782</v>
+        <v>944399.49685</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>246577.3975</v>
+        <v>359871.63169</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>146445.61195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>169905.81514</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1026271.438</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-14808.78208</v>
+        <v>-130786.0847</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-8544.761200000001</v>
+        <v>-86593.65564999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-13717.53202</v>
+        <v>-261315.99839</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-14864.87161</v>
+        <v>-90520.66038</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-52055.27709</v>
+        <v>-829091.20516</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-45506.94684999999</v>
+        <v>-723282.16309</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-63128.49508</v>
+        <v>-945446.2085599999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-208914.77542</v>
+        <v>-1134351.4229</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-391453.9273</v>
+        <v>-1656320.96312</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1931404.68452</v>
+        <v>-3412193.53239</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-497207.68047</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-765966.85749</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-2996880.506</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1816.57929</v>
+        <v>2661.64009</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2418.30833</v>
+        <v>3965.10471</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3400.01889</v>
+        <v>14925.29455</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2765.89231</v>
+        <v>4604.077470000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5214.38888</v>
+        <v>11290.73315</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6519.93463</v>
+        <v>12784.41098</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>8190.749780000001</v>
+        <v>31336.10773</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>12887.58301</v>
+        <v>34274.02716000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>15167.61678</v>
+        <v>24235.39103</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>54854.4316</v>
+        <v>105414.80016</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>61699.16649</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>111078.65705</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>157612.593</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-16625.36137</v>
+        <v>-133447.72479</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-10963.06953</v>
+        <v>-90558.76036</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-17117.55091</v>
+        <v>-276241.29294</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-17630.76392</v>
+        <v>-95124.73785</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-57269.66597000001</v>
+        <v>-840381.93831</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-52026.88148</v>
+        <v>-736066.57407</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-71319.24486000001</v>
+        <v>-976782.31629</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-221802.35843</v>
+        <v>-1168625.45006</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-406621.54408</v>
+        <v>-1680556.35415</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1986259.11612</v>
+        <v>-3517608.33255</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-558906.84696</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-877045.51454</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-3154493.099</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>536</v>
+        <v>313</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>643</v>
+        <v>385</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1084</v>
+        <v>415</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1591</v>
+        <v>527</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2506</v>
+        <v>709</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2686</v>
+        <v>818</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>888</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>